--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4238.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4238.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4238</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Christopher James Jordan</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3559</t>
+          <t>3559</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -544,7 +609,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>12/01/2014</t>
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3599</t>
+          <t>3599</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3600</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3602</t>
+          <t>3602</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3606</t>
+          <t>3606</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3608</t>
+          <t>3608</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -800,7 +864,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>28/02/2014</t>
@@ -808,7 +871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3622</t>
+          <t>3622</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -860,7 +923,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3637</t>
+          <t>3637</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -912,7 +975,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3638</t>
+          <t>3638</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -964,7 +1027,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3639</t>
+          <t>3639</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1004,7 +1067,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>28/05/2014</t>
@@ -1012,7 +1074,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3640</t>
+          <t>3640</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1064,7 +1126,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3641</t>
+          <t>3641</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1116,7 +1178,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3642</t>
+          <t>3642</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1168,7 +1230,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3664</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1208,7 +1270,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>03/12/2014</t>
@@ -1216,7 +1277,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3710</t>
+          <t>3710</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1268,7 +1329,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3712</t>
+          <t>3712</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1308,7 +1369,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>10/12/2014</t>
@@ -1316,7 +1376,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3714</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1368,7 +1428,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3716</t>
+          <t>3716</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1420,7 +1480,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3718</t>
+          <t>3718</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1472,7 +1532,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3727</t>
+          <t>3727</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1524,7 +1584,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3780</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1564,7 +1624,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>13/03/2015</t>
@@ -1572,7 +1631,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3785</t>
+          <t>3785</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1624,7 +1683,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3804</t>
+          <t>3804</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1676,7 +1735,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3805</t>
+          <t>3805</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1728,7 +1787,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3885</t>
+          <t>3885</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1768,7 +1827,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>06/02/2016</t>
@@ -1776,7 +1834,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3887</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1828,7 +1886,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3889</t>
+          <t>3889</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1868,7 +1926,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>26/06/2016</t>
@@ -1876,7 +1933,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3908</t>
+          <t>3908</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1916,7 +1973,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>02/07/2016</t>
@@ -1924,7 +1980,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3911</t>
+          <t>3911</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1964,7 +2020,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>01/09/2016</t>
@@ -1972,7 +2027,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3930</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2024,7 +2079,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3932</t>
+          <t>3932</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2076,7 +2131,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4401</t>
+          <t>4401</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2116,7 +2171,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>07/02/2020</t>
@@ -2124,7 +2178,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4405</t>
+          <t>4405</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2176,7 +2230,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4408</t>
+          <t>4408</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2228,7 +2282,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4660</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2267,7 +2321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2289,7 +2343,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2326,7 +2380,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3559</t>
+          <t>3559</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2363,7 +2417,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3599</t>
+          <t>3599</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2400,7 +2454,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3600</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2437,7 +2491,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3602</t>
+          <t>3602</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2474,7 +2528,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3606</t>
+          <t>3606</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2511,7 +2565,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3608</t>
+          <t>3608</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2548,7 +2602,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3622</t>
+          <t>3622</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2585,7 +2639,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3637</t>
+          <t>3637</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2622,7 +2676,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3638</t>
+          <t>3638</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2659,7 +2713,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3639</t>
+          <t>3639</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2696,7 +2750,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3640</t>
+          <t>3640</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2733,7 +2787,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3641</t>
+          <t>3641</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2770,7 +2824,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3642</t>
+          <t>3642</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2807,7 +2861,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3664</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2844,7 +2898,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3710</t>
+          <t>3710</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2881,7 +2935,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3712</t>
+          <t>3712</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2918,7 +2972,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3714</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2955,7 +3009,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3716</t>
+          <t>3716</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2992,7 +3046,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3718</t>
+          <t>3718</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3029,7 +3083,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3727</t>
+          <t>3727</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3066,7 +3120,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3780</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3103,7 +3157,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3785</t>
+          <t>3785</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3140,7 +3194,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3804</t>
+          <t>3804</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3177,7 +3231,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3805</t>
+          <t>3805</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3214,7 +3268,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3885</t>
+          <t>3885</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3251,7 +3305,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3887</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3288,7 +3342,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3889</t>
+          <t>3889</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3325,7 +3379,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3908</t>
+          <t>3908</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3362,7 +3416,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3911</t>
+          <t>3911</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3399,7 +3453,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3930</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3436,7 +3490,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3932</t>
+          <t>3932</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3473,7 +3527,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4401</t>
+          <t>4401</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3510,7 +3564,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4405</t>
+          <t>4405</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3547,7 +3601,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4408</t>
+          <t>4408</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3584,7 +3638,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4660</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3610,6 +3664,491 @@
       <c r="G36" t="inlineStr">
         <is>
           <t>1/49</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3712</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3714</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3716</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.98%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3718</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3727</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7.26%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3780</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3785</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3804</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.49%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3805</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.82%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3885</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3.51%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3887</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3889</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3908</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3911</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3930</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3932</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4.97%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4401</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4405</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4408</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4238.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4238.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3724,15 +3725,433 @@
           <t>3712</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3714</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3716</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.98%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3718</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3727</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7.26%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3780</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3785</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3804</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.49%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3805</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.82%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3885</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3.51%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3887</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3889</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3908</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3911</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3930</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3932</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4.97%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4401</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4405</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4408</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3712</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3740,15 +4159,14 @@
           <t>3714</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>9</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3758,27 +4176,14 @@
           <t>3716</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>9</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.98%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3788,23 +4193,14 @@
           <t>3718</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>9</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3814,27 +4210,14 @@
           <t>3727</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>9</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>7.26%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3844,23 +4227,14 @@
           <t>3780</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>9</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3870,15 +4244,14 @@
           <t>3785</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3888,27 +4261,14 @@
           <t>3804</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>9</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.49%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3918,27 +4278,14 @@
           <t>3805</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>10</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.82%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3948,29 +4295,12 @@
           <t>3885</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.51%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3978,17 +4308,12 @@
           <t>3887</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>8</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3998,13 +4323,6 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4012,15 +4330,14 @@
           <t>3908</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4030,17 +4347,12 @@
           <t>3911</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>9</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4050,13 +4362,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4064,29 +4369,12 @@
           <t>3932</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.97%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4096,13 +4384,6 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4112,13 +4393,6 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4128,13 +4402,6 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4144,13 +4411,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4238.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4238.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2184,7 +2183,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3725,6 +3724,10 @@
           <t>3712</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3740,6 +3743,9 @@
       <c r="B3" t="n">
         <v>9</v>
       </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3795,6 +3801,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3850,6 +3857,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3865,6 +3873,9 @@
       <c r="B8" t="n">
         <v>8</v>
       </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>YES</t>
@@ -3970,6 +3981,9 @@
       <c r="B12" t="n">
         <v>8</v>
       </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3982,6 +3996,10 @@
           <t>3889</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3997,6 +4015,9 @@
       <c r="B14" t="n">
         <v>8</v>
       </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4012,6 +4033,9 @@
       <c r="B15" t="n">
         <v>9</v>
       </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4024,6 +4048,10 @@
           <t>3930</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4066,6 +4094,10 @@
           <t>4401</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4078,6 +4110,10 @@
           <t>4405</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4090,6 +4126,10 @@
           <t>4408</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4102,315 +4142,15 @@
           <t>4660</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3712</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3714</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3716</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3718</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3727</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3780</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3785</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3804</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3805</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3885</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3887</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3889</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3908</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3911</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3930</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>3932</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4401</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4405</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4408</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4660</t>
-        </is>
-      </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4238.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4238.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,6 +608,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>12/01/2014</t>
@@ -864,6 +864,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>28/02/2014</t>
@@ -1067,6 +1068,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>28/05/2014</t>
@@ -1270,6 +1272,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>03/12/2014</t>
@@ -1369,6 +1372,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>10/12/2014</t>
@@ -1624,6 +1628,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>13/03/2015</t>
@@ -1827,6 +1832,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>06/02/2016</t>
@@ -1926,6 +1932,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>26/06/2016</t>
@@ -1973,6 +1980,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>02/07/2016</t>
@@ -2020,6 +2028,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>01/09/2016</t>
@@ -2171,6 +2180,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>07/02/2020</t>
@@ -3670,489 +3680,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3712</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3714</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>9</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3716</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>9</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.98%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3718</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3727</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>7.26%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3780</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3785</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3804</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.49%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3805</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.82%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3885</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.51%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3887</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3889</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3908</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3911</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3930</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>3932</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.97%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4401</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4405</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4408</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4660</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>